--- a/500all/speech_level/speeches_CHRG-114hhrg20248.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400052</t>
   </si>
   <si>
-    <t>Michael C. Burgess</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Burgess. The Subcommittee on Commerce, Manufacturing, and Trade will now come to order.    I will recognize myself for 5 minutes for an opening statement.    And I do want to welcome all of our witnesses here today and welcome everyone to another installment of our Disrupter Series hearings. Today, we will examine wearable technologies and how they are disrupting traditional business processes and transforming ways that consumers can engage in commerce.    Last year, we held a hearing to examine the Internet of Things, a network of Internet-connected physical objects that gather information in realtime to predict circumstances, prevent problems, and create opportunities. That market has now matured, and wearable technologies have come to represent a growing segment within that digital ecosystem of interconnected devices and their applications and platforms.    The defining characteristic of wearables is that they offer consumers and businesses access to realtime, highly personalized information through products and devices that are physically worn by the user. Many of us are familiar with fitness tracking bands on the market today. They gather information about an individual's physical activity, or lack thereof, and are intended to motivate users to improve their fitness, wellness, and health regimens.    While inspiring better fitness habits is a positive use of wearable technology, the societal and economic benefits of these products extends far beyond those applications. We are just beginning to see the potential of wearable technology across multiple economic sectors and industries, such as energy, health care, transportation, retail, professional sports, manufacturing, education, and others.    In manufacturing, for example, wearables can provide businesses with greater insight into the daily operations of their production practices, their workflows, their supply chain processes.    In sports, coaches and athletic trainers can use wearables to better assess player recovery time and inform return-to-play considerations to reduce the risk of further injury. I just think back to my own brief high school sports career. The coach would know if I was dogging it realtime. He wouldn't have to accuse me; he would have the data.    In the automotive sector, wearable technology can sense early signs of driver fatigue, prompting the wearable device or vehicle to send alerts or another type of warning to the driver.    And in the retail industry, retailers can use wearable technology to customize product offerings and better meet consumer preferences and demand.    The appeal of this technology is pervasive because of what it can offer in terms of operational efficiencies, public safety, improved performance, and cost savings for every business type and size. The potential for wearable technology is virtually limitless.    Much of the excitement surrounding wearables is rooted in the promise to create new opportunities for economic growth, economic development, and job creation. Wearables create economic opportunities by providing insights into an individual's behavior and driving changes to that behavior to improve job performance and job execution. This can lead to increased productivity and efficiency, helping a business reduce waste and optimize resources.    The technology also facilitates smarter decisionmaking, increased information-sharing, and augmented interactions amongst workers. The productivity gains achieved through these operational advances are fundamental to a stronger and more prosperous economy.    As with all connected technologies, there are important privacy and security considerations that should be part of today's discussions. Unlike other connected things within the Internet of Things, such as connected thermostats, streetlights, and refrigerators, wearables are physically worn by users and capable of extracting highly personalized information about an individual's activities or whereabouts.    In our examination of these issues, it will be important to understand how consumers are using these technologies and how they will be protected while preserving the flexibility and the ingenuity of the innovators that are driving this market forward.    Once again, I want to thank our witnesses for taking the time to inform us about the applications and future potential.    I recognize the gentleman from New Jersey, 5 minutes for an opening statement, please.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    Today's hearing gives us an opportunity to look at a diverse and quickly developing field. Wearable technology, part of the broader Internet of Things, provides consumers with capabilities that would have seemed more like science fiction than reality only a decade ago.    Today, you can buy a wristband that measures UV exposure, helping you avoid sun damage, or a sensor that sticks to skin and teaches you how to stretch to alleviate back pain or smart shoes that give you directions through buzzes to their feet.    Researchers from WINLAB, the Wireless Information Network Laboratory at Rutgers University in my district, collaborated to design a wearable that could replace passwords for head-worn devices by authenticating the user by measuring the unique movements of the head in response to audio stimulus. WINLAB reports that the device can accurately tell that the right person is wearing it at a rate of over 95 percent through tiny movements of the head alone.    Many wearables measure biometric data, giving consumers access to a wealth of personal information. Not long ago, if someone wanted to know their heart rate, quality of sleep, and calories burned, they would have had to be hooked up to a roomful of equipment. Today, they can simply put on a small bracelet and have all of that information at their fingertips.    And these are amazing advancements, but with these new innovations come new vulnerabilities. For example, when a doctor measures your heart rate, that information is protected from unauthorized disclosure. Those privacy protections do not apply to the same information collected through most wearable devices. And there are no standards for encryption or other security measures to protect the data wearables collect.    Long and complicated user terms and agreements have further compounded the problem. Some include clauses saying that the data they collect belongs to the company, not to the user. Most of us do not read every online user agreement word for word, so many wearable users are surprised when they learn that they may not own their own data.    Whether by sale or by data breach, the release of personal information from wearables can have serious implications. Employers, credit agencies, and health insurers can all use the data collected from wearables to draw inferences that may have a negative effect on the user.    As with other Internet of Things products, by building in security from the beginning, manufacturers of wearables can more effectively prevent hackers from gaining access to a device or the data it collects. By building in privacy, consumers can have confidence in these products and buy them knowing that highly personal information will not be shared without their consent.    So I look forward to discussing the many great innovations in wearable technology today, but with these innovations we must also devote serious attention to how we can better protect consumers and their personal information in this space. When privacy and security are made a priority, both businesses and consumers benefit.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400360</t>
   </si>
   <si>
-    <t>Janice D. Schakowsky</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Schakowsky. I have a short statement.</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Palliparambil</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palliparambil. Palliparambil.</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t xml:space="preserve">    Mr. Burgess. The Director of Sales and Business Development for NXP; Mr. Scott Peppet, Professor of Law at the University of Colorado School of Law; and Mr. Doug Webster, Vice President for Service Provider Marketing at Cisco.    We do appreciate you all being here with us today.    We are in the middle of a vote on the floor, but, Mr. Bianculli, I think we have time if you would like to give your opening statement. Then we will take a brief recess and come back and resume.    You are recognized for 5 minutes, please.</t>
   </si>
   <si>
-    <t>Bianculli</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bianculli. Thank you, Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee, for the opportunity to testify before you today.    I am the Vice President of the Emerging Technology Office at Zebra Technologies Corporation in Lincolnshire, Illinois. With nearly $4 billion in annual revenue, Zebra is a global market leader in a number of advanced technologies, including the Internet of Things and the related area of wearable technology.    While many Americans may not recognize Zebra by name, they come into contact with our solutions every day. For example, the barcode labels that are prominently featured on airline bag tags, express delivery packages, and pharmaceutical prescription bottles are often generated by a Zebra barcode label printer and tracked and managed by Zebra scanners, mobile computers, and wireless infrastructure.    Our pioneering technology vision and trusted enterprise solutions, particularly our wearables that are the focus of today's hearing, are dedicated to helping business, Government, and nonprofits make smarter decisions and take smarter actions by providing them with realtime visibility and mission-critical information in an ever-more-efficient manner.    Zebra commends the subcommittee for hosting this series of hearings on technological disrupters. Mr. Chairman, I will stress five key points.    First, let me begin with Zebra's role in the wearable market. Zebra's leadership in this market derives from our recreation of the overall wearables product category nearly 25 years ago. With the launch of our wrist-mounted terminal and ring scanner in 1992, we invented the first handheld laser barcode scanner, the first barcode printer, and the first WiFi-enabled mobile computer. We remain at the very forefront of breakthrough innovation as we continue to create wearables that go from the wrist and hand, as you see before me, to lanyards and heads-up computing solutions.    Second, we commend the subcommittee for its recognition of the wearable category as a disrupter. Wearables earn this status because they empower workers with total hands-free mobility in a manner that also provides instant access to business-critical information.    Instead of needing multiple devices that are all directed by hand, wearables enable new levels of productivity by providing employees with tools that marry natural language interaction with immediately available information, be it visual, verbal, or augmenting the user's physical reality.    Imagine, Mr. Chairman, a simple verbal command that provides a worker with full access to data and subject matter expertise in realtime. Imagine, further, the same worker using another verbal command to respond back and transmit data or pictures to a main office, aremotely located colleague, or to another machine. Now imagine having that ability while suspended high above the ground repairing the electrical grid or working inside an aircraft, no hands required. Wearable technology makes it happen.    Third, I would like to offer a quick look into the future. Awareness and acceptance of smartphone technology has grown at a tremendous pace and has built the foundation for wearable device adoption. Current technologies will continue to evolve and revolutionize the way people instinctively work with computers and intuitively interact with their virtual or augmented reality environments. It is not an overstatement to say that the possibilities of these devices are limitless.    Over the next few years, they will get smaller with technological improvements in computing, analytics, power, and display optics. As part of this trend, we will continue to advance our portfolio of wearables. We are presently focused on developing an augmented reality wearable system for true hands-free application, providing a future solutions approach for uninterrupted workflow and opening up the possibilities of what realtime, eye-level information can do.    Fourth, the economic benefits of wearables come from its significant impact on productivity across virtually every industry and economic sector. This is because visual computing or the ability to work hands-free while receiving eye-level information will drive a major paradigm shift in how we, as humans, directly interface with computers. Visual or hands-free computing will enable this kind of frictionless, uninterrupted workflow. Even a small increase in the efficiency of manufacturing or warehouse workers through wearables could bring a profound economic benefit to our economy.    Fifth and finally, we urge Congress and the administration to take a light touch where wearable technology is concerned, for the same reasons that many in industry as well as in Congress and the administration have advocated for a light regulatory approach to the Internet of Things.    The primary challenge is to allow for the rapid development, deployment, and subsequent advancement of wearables in a manner that simultaneously addresses concerns over data, security, and encryption. The goal is to encourage technologies which provide enhanced, secure, and realtime visibility and access to information in a way that empowers workers to undertake more effective and timely decisions and actions.    To this end, Mr. Chairman, Zebra stands ready work with the subcommittee inadvancing policies which keep the United States at the leading edge of this exciting technology. And I again thank you for the opportunity to provide our views on wearables, and I look forward to your questions.</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t xml:space="preserve">    Mr. Burgess. I thank everyone for their forbearance. The subcommittee will resume.    We will resume with the testimony of Ms. Meg Burich from Adidas Digital Sports.</t>
   </si>
   <si>
-    <t>Burich</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Burich. Good morning, Chairman and members of the subcommittee. Thank you for having me.</t>
   </si>
   <si>
@@ -163,18 +145,12 @@
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman. Mr. Peppet, Professor Peppet, you are recognized for 5 minutes for your opening statement, please.</t>
   </si>
   <si>
-    <t>Peppet</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Peppet. Chairman Burgess, Ranking Member Schakowsky, members of the subcommittee, I appreciate the opportunity to talk to you about wearables. I am a Professor of Law at the University of Colorado Law School in Boulder, where I work on markets, technology, and privacy. I should say I am also a member of the board of directors of Anixter International, an Illinois-headquartered company, so my remarks today are in my own capacity, and in no way represent Anixter or anyone else    I also want to say I am involved with four entrepreneurship and innovation centers: one in Colorado, one at Kellogg in Illinois, and one at the University of Michigan, and one actually in Israel at a university called IDC. And in that, in those roles, I have worked with student teams creating startups, many of whom are interested in or working in the wearable space. So I sort of got various perspectives on this set of issues.    These are exciting technologies, and I agree with my fellow witnesses who have said how much innovation is happening in this space, and I agree with all of that and just want to focus on three things in terms of privacy and security that I think deserve attention.    The first is one that you have already mentioned, which is data security, and I think there are two issues in data security. The first is, is the device itself secure? And that is a technical matter. Mostly, we know from research, that many of these devices have not been secured in the first wave of consumer devices, for example, and the reason is obvious: They are small, they are generally designed to be relatively inexpensive. It is hard to pack data security measures into a thing with a small processor, very limited connectivity, they are hard to update because they don't talk to the Internet that frequently.    And so it has been a challenge, and the FTC has worked with companies, continues to work to try to push companies in that space, or in the security issue, and I think we will see more innovation there to try to resolve some of those questions.    The second data security issue is actually not about the device, it is about the data. What happens to these data once they are off the device, they are stored in a company's cloud server somewhere, and someone hacks into that server. At the moment, if your credit card information is stolen from Target, for example, as you have all heard about that example, Target has to say, Hey, we were hacked, and they have to notify the public. That is our market-based response to data security in this country is to say, Listen, give consumers information, they will then choose with their dollars or their feet whether they want to go back to that store.    In all but one State, and Mr. Chairman, it is the great State of Texas, only Texas' data breach notification statute would actually apply to biometric data coming off of most of the wearables that we are talking about in the consumer space. The rest of the States really have not yet seen the risk that these incredibly sensitive data, as you said, pose if they were to be hacked, which I think is an odd and sort of unfortunate anomaly.    To the extent that Congress ventures into the data breach notification area, that is something that it should consider. So that is security.    The second thing I will talk about is use, and I will just give a very simple example. There are lots of different devices at the moment being used in hospitals that keep track of whether a hospital worker washes his or her hands when they use the restroom. What they do is they have a lanyard on, you know, or some kind of ID badge, and there is a device at the sink and it literally just says how long did they spend standing in front of the sink? And then if they approach a hospital bed and they haven't washed their hands properly, their lanyard starts to buzz and say, hey, wait a minute, and it records that they have done that, and that is not a good thing.    That is a great idea, right? I think that is a terrific idea. I hope that every hospital I ever use has that, and employees, consumers, whoever we are talking about, need to know what those kinds of data are being used for. So for example, there might be no issue at all for a hospital or an employer using the data coming off a wearable for the obvious use that it was designed for, but I would guess that if one of the hospital employees discovered that their hand-washing habits had leaked out into data brokerages and was being used in credit decisions or insurance decisions or any other kind of decisions in the economy, they would be both surprised and unhappy. So the use issue is a very complicated one.    And the last one I will say something about is consent. Consent is hard, particularly in the consumer space, for these little devices. A study that I did, I brought 20 of these very popular devices, I opened all the boxes, and I looked inside. There is almost never any privacy information. I didn't test Adidas', but there is almost never privacy information in the box. Sometimes you get the privacy information when you download the app that pairs with the device. Often, you are sent to the Web site or you have to go to Web site of the firm, and often, when you get there and you read their privacy policy, it doesn't apply to the data coming off the device. It applies to the use of the Web site.    So at the moment, we are in a bit of a backward situation on how to give users and consumers, in particular, good information about these devices. Is the device information protected? Who owns the data? Can users go in and delete their data? Many have discovered that they can't, so their fitness data is being stored in the cloud somewhere and they say, I don't want to use this device anymore. They didn't just lose it. They affirmatively decided they don't like it anymore, and they say, I want to get my data back. I don't want you to have it anymore.    Many companies actually will not permit that or permit editing of this data. And most important, who is the data being shared with? Can it be sold in a bankruptcy, in an acquisition, or just in general?    So again, the FTC has been working with industry to try to come up with some guidance on those issues, but those consent questions are very difficult at the moment.    I will stop there. Thank you for allowing me to testify.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman. Mr. Webster is recognized for 5 minutes for your testimony, please.</t>
   </si>
   <si>
-    <t>Webster</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you, Mr. Chairman and members of subcommittee. The Internet has revolutionized the world around us, transforming the way we use and share data to communicate, to collaborate, and consume entertainment and information. Yet, the next wave of technology isn't about moving data from one place to another, it is about connecting physical objects to the Internet on an unprecedented scale.    Now, increasingly, the things connected are the shirts on our backs, the glasses on our foreheads, the watches on our wrists, and the jewelry around our necks, and collectively, these emerging devices are referred to as wearables.    To be sure, some wearables are mere novelties. However, many others, like the Fitbit or Apple watch, are improving our health and wellness by tracking our daily activities, and the most advanced wearables have the power to save lives and improve patient outcomes. For example, there is an FDA-approved heart rate monitor that provides precise information from cardiac patients to their physicians between visits to the doctor's office.    Another device looks like a typical smartwatch, but in reality, it helps epileptic patients manage their stress and alert family members and physicians when a convulsive seizure happens.    And a third, a prototype in development, is a glucose-monitoring contact lens that allows diabetics to monitor their blood sugar continuously, and the possibilities are endless here. I mean, virtual reality goggles that provide for immersive education, connected football helmets to alert the team physical to a possible concussion, GPS-enabled slippers to make sure an elderly relative is getting out of bed and doesn't wander off, and accessories that make mobile payments faster and easier.    Now, the one feature that unites these devices is their wireless connectivity to the Internet. Each contains a tiny radio transmitter that sends data to a receiving device, such as a WiFi router or a smartphone, and then the data is transmitted over an IP network to a server or data storage facility.    Now, once online, software allows you to visualize and analyze the data to help improve decisionmaking, whether it is information about your daily run, your average number of steps per day that gauge your fitness progress, or simply storing videos so you can decide whether to post it at a later date.    Now, at Cisco, we have been monitoring the growth of wearables for 3 years, and it is fair to say that these devices are poised to take off. Here is the forecast from our most recent Cisco mobile visual and networking index report. By 2020, we forecast approximately 600 million wearable devices globally, up from 97 million in 2015.    Now, fewer than 15 percent of these devices are expected to be directly capable of transmitting on a cellular network. Most, instead, will use WiFi or Bluetooth to connect to the Internet. Now, the data generated by wearables represents a tiny trickle in the larger stream of mobile data, mostly because only a few of these devices are being used to transmit video.    Traffic from wearables is forecast to account for only 1 percent of total mobile data traffic by 2020, even as the amount of data generated by each device is expected to grow.    Now, North America has a 40 percent share of global connections today, and it is because we are early adopters, but that falls to 30 percent by 2020 as Europe and Asia catch up with us. By 2020, there are forecasts to be over 180 million wearable devices in use in North America, compared to about 40 million today, representing a 4 \\1/2\\-fold increase in just 5 years.    Now, given this growth, it is important for policymakers to understand the issues affecting wearables. We need to ensure that radio spectrum is available with the right set of rules to make sure these devices can connect to the network, to encourage policy that support investment in the service provider networks that are needed to transport data to the Internet.    We need policies that encourage startups and small companies by ensuring access to venture capital to tax policies that support research and development, as well as encouraging more young people to enter careers in science, technology, engineering, and math, also known as STEM. And we need to ensure that device manufacturers and applications developers understand privacy and security threats and take the steps to protect their devices and the personal information of consumers.    Here is the bottom line: Wearables represent a measurable component of the mobile landscape, and they are projected to continue to grow. They hold incredible promise to improve our lives. Public policies that encourage the development of this category should be supported so that the United States can continue to be a leader in this next chapter of the Internet.    Thank you for your attention, and I look forward to answering your questions.</t>
   </si>
   <si>
@@ -184,9 +160,6 @@
     <t>412539</t>
   </si>
   <si>
-    <t>Susan W. Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman. Thanks for holding this hearing. I happen to be one of those brand new users, just acquired a couple of weeks ago. I kind of wish I had been a part of this hearing before I bought this. However, I am excited to be part of the wearable technology consumer base, and, in fact, bought several of these for my parents and in-laws for the holidays.    And so we often think about fitness trackers when we hear wearable technology, and so we are certainly learning a lot, and when, in preparing for this hearing, learning about innovations in manufacturing. In Indiana where I am from, is a heavy manufacturing State, one of the top manufacturing States in the country.    And so, Mr. Bianculli--I am not sure I caught----</t>
   </si>
   <si>
@@ -274,9 +247,6 @@
     <t>412290</t>
   </si>
   <si>
-    <t>Leonard Lance</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you. Mr. Webster, we have heard a lot about the benefits of this technology. Why is it more advanced, for example, than the smartphone?</t>
   </si>
   <si>
@@ -292,9 +262,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. With that, I will be brief and respect my chairman.    Thank you all for being here. Mr. Webster, if I could ask what types of economic and workplace problems do wearables solve for business?</t>
   </si>
   <si>
@@ -332,9 +299,6 @@
   </si>
   <si>
     <t>412250</t>
-  </si>
-  <si>
-    <t>Gus M. Bilirakis</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bilirakis. OK.</t>
@@ -853,11 +817,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -879,11 +841,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -903,13 +863,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -931,11 +889,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -955,13 +911,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -983,11 +937,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1007,13 +959,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1035,11 +985,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1059,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1087,11 +1033,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1111,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1139,11 +1081,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1163,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1191,11 +1129,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1215,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1243,11 +1177,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1267,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1295,11 +1225,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1319,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1345,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1371,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1399,11 +1321,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1423,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1451,11 +1369,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1475,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1503,11 +1417,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1527,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1555,11 +1465,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1579,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>49</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1607,11 +1513,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1631,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>52</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1659,11 +1561,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1683,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1709,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1735,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1761,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1787,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1813,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1839,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1865,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1891,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
         <v>56</v>
-      </c>
-      <c r="H42" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1917,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1943,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1969,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1995,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2021,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" t="s">
-        <v>52</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2047,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
-      </c>
-      <c r="G48" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2073,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>52</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2099,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G50" t="s">
-        <v>56</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2127,11 +1993,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2151,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2177,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2203,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2229,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>49</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2255,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2281,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
-      </c>
-      <c r="G57" t="s">
-        <v>49</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2307,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2333,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
-      </c>
-      <c r="G59" t="s">
-        <v>49</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2359,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2387,11 +2233,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2411,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>85</v>
-      </c>
-      <c r="G62" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2437,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
-      </c>
-      <c r="G63" t="s">
-        <v>52</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2463,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" t="s">
-        <v>86</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2491,11 +2329,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2515,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>91</v>
-      </c>
-      <c r="G66" t="s">
-        <v>92</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2541,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67" t="s">
-        <v>52</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2567,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>91</v>
-      </c>
-      <c r="G68" t="s">
-        <v>92</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2593,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2619,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" t="s">
-        <v>92</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2645,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
-      </c>
-      <c r="G71" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2671,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>91</v>
-      </c>
-      <c r="G72" t="s">
-        <v>92</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2697,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
-      </c>
-      <c r="G73" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2723,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>91</v>
-      </c>
-      <c r="G74" t="s">
-        <v>92</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2749,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>25</v>
-      </c>
-      <c r="G75" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2775,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
-      </c>
-      <c r="G76" t="s">
+        <v>81</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>92</v>
-      </c>
-      <c r="H76" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2803,11 +2617,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2827,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G78" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2855,11 +2665,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2879,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
-      </c>
-      <c r="G80" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2907,11 +2713,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2931,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2959,11 +2761,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2983,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3009,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>25</v>
-      </c>
-      <c r="G85" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3035,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3061,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
-      </c>
-      <c r="G87" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3087,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
+        <v>94</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
         <v>105</v>
-      </c>
-      <c r="G88" t="s">
-        <v>106</v>
-      </c>
-      <c r="H88" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3113,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>25</v>
-      </c>
-      <c r="G89" t="s">
-        <v>52</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3139,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3165,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>25</v>
-      </c>
-      <c r="G91" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3191,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3217,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>25</v>
-      </c>
-      <c r="G93" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3243,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3269,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
-      </c>
-      <c r="G95" t="s">
-        <v>49</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3295,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" t="s">
-        <v>106</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3323,11 +3097,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3347,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s">
-        <v>49</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3375,11 +3145,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3399,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" t="s">
-        <v>49</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3427,11 +3193,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3451,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
-      </c>
-      <c r="G102" t="s">
-        <v>49</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3479,11 +3241,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3503,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
-      </c>
-      <c r="G104" t="s">
-        <v>52</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3531,11 +3289,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3555,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" t="s">
-        <v>31</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3583,11 +3337,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3607,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3635,11 +3385,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3659,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3687,11 +3433,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3711,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3739,11 +3481,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3763,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
-      </c>
-      <c r="G114" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3791,11 +3529,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3815,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" t="s">
-        <v>36</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3843,11 +3577,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3869,11 +3601,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20248.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Burgess</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Burgess. The Subcommittee on Commerce, Manufacturing, and Trade will now come to order.    I will recognize myself for 5 minutes for an opening statement.    And I do want to welcome all of our witnesses here today and welcome everyone to another installment of our Disrupter Series hearings. Today, we will examine wearable technologies and how they are disrupting traditional business processes and transforming ways that consumers can engage in commerce.    Last year, we held a hearing to examine the Internet of Things, a network of Internet-connected physical objects that gather information in realtime to predict circumstances, prevent problems, and create opportunities. That market has now matured, and wearable technologies have come to represent a growing segment within that digital ecosystem of interconnected devices and their applications and platforms.    The defining characteristic of wearables is that they offer consumers and businesses access to realtime, highly personalized information through products and devices that are physically worn by the user. Many of us are familiar with fitness tracking bands on the market today. They gather information about an individual's physical activity, or lack thereof, and are intended to motivate users to improve their fitness, wellness, and health regimens.    While inspiring better fitness habits is a positive use of wearable technology, the societal and economic benefits of these products extends far beyond those applications. We are just beginning to see the potential of wearable technology across multiple economic sectors and industries, such as energy, health care, transportation, retail, professional sports, manufacturing, education, and others.    In manufacturing, for example, wearables can provide businesses with greater insight into the daily operations of their production practices, their workflows, their supply chain processes.    In sports, coaches and athletic trainers can use wearables to better assess player recovery time and inform return-to-play considerations to reduce the risk of further injury. I just think back to my own brief high school sports career. The coach would know if I was dogging it realtime. He wouldn't have to accuse me; he would have the data.    In the automotive sector, wearable technology can sense early signs of driver fatigue, prompting the wearable device or vehicle to send alerts or another type of warning to the driver.    And in the retail industry, retailers can use wearable technology to customize product offerings and better meet consumer preferences and demand.    The appeal of this technology is pervasive because of what it can offer in terms of operational efficiencies, public safety, improved performance, and cost savings for every business type and size. The potential for wearable technology is virtually limitless.    Much of the excitement surrounding wearables is rooted in the promise to create new opportunities for economic growth, economic development, and job creation. Wearables create economic opportunities by providing insights into an individual's behavior and driving changes to that behavior to improve job performance and job execution. This can lead to increased productivity and efficiency, helping a business reduce waste and optimize resources.    The technology also facilitates smarter decisionmaking, increased information-sharing, and augmented interactions amongst workers. The productivity gains achieved through these operational advances are fundamental to a stronger and more prosperous economy.    As with all connected technologies, there are important privacy and security considerations that should be part of today's discussions. Unlike other connected things within the Internet of Things, such as connected thermostats, streetlights, and refrigerators, wearables are physically worn by users and capable of extracting highly personalized information about an individual's activities or whereabouts.    In our examination of these issues, it will be important to understand how consumers are using these technologies and how they will be protected while preserving the flexibility and the ingenuity of the innovators that are driving this market forward.    Once again, I want to thank our witnesses for taking the time to inform us about the applications and future potential.    I recognize the gentleman from New Jersey, 5 minutes for an opening statement, please.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman.    Today's hearing gives us an opportunity to look at a diverse and quickly developing field. Wearable technology, part of the broader Internet of Things, provides consumers with capabilities that would have seemed more like science fiction than reality only a decade ago.    Today, you can buy a wristband that measures UV exposure, helping you avoid sun damage, or a sensor that sticks to skin and teaches you how to stretch to alleviate back pain or smart shoes that give you directions through buzzes to their feet.    Researchers from WINLAB, the Wireless Information Network Laboratory at Rutgers University in my district, collaborated to design a wearable that could replace passwords for head-worn devices by authenticating the user by measuring the unique movements of the head in response to audio stimulus. WINLAB reports that the device can accurately tell that the right person is wearing it at a rate of over 95 percent through tiny movements of the head alone.    Many wearables measure biometric data, giving consumers access to a wealth of personal information. Not long ago, if someone wanted to know their heart rate, quality of sleep, and calories burned, they would have had to be hooked up to a roomful of equipment. Today, they can simply put on a small bracelet and have all of that information at their fingertips.    And these are amazing advancements, but with these new innovations come new vulnerabilities. For example, when a doctor measures your heart rate, that information is protected from unauthorized disclosure. Those privacy protections do not apply to the same information collected through most wearable devices. And there are no standards for encryption or other security measures to protect the data wearables collect.    Long and complicated user terms and agreements have further compounded the problem. Some include clauses saying that the data they collect belongs to the company, not to the user. Most of us do not read every online user agreement word for word, so many wearable users are surprised when they learn that they may not own their own data.    Whether by sale or by data breach, the release of personal information from wearables can have serious implications. Employers, credit agencies, and health insurers can all use the data collected from wearables to draw inferences that may have a negative effect on the user.    As with other Internet of Things products, by building in security from the beginning, manufacturers of wearables can more effectively prevent hackers from gaining access to a device or the data it collects. By building in privacy, consumers can have confidence in these products and buy them knowing that highly personal information will not be shared without their consent.    So I look forward to discussing the many great innovations in wearable technology today, but with these innovations we must also devote serious attention to how we can better protect consumers and their personal information in this space. When privacy and security are made a priority, both businesses and consumers benefit.    I yield back, Mr. Chairman.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Schakowsky</t>
+  </si>
+  <si>
+    <t>Janice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Schakowsky. I have a short statement.</t>
   </si>
   <si>
@@ -85,6 +106,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Palliparambil</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palliparambil. Palliparambil.</t>
   </si>
   <si>
@@ -97,6 +121,9 @@
     <t xml:space="preserve">    Mr. Burgess. The Director of Sales and Business Development for NXP; Mr. Scott Peppet, Professor of Law at the University of Colorado School of Law; and Mr. Doug Webster, Vice President for Service Provider Marketing at Cisco.    We do appreciate you all being here with us today.    We are in the middle of a vote on the floor, but, Mr. Bianculli, I think we have time if you would like to give your opening statement. Then we will take a brief recess and come back and resume.    You are recognized for 5 minutes, please.</t>
   </si>
   <si>
+    <t>Bianculli</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bianculli. Thank you, Chairman Burgess, Ranking Member Schakowsky, and members of the subcommittee, for the opportunity to testify before you today.    I am the Vice President of the Emerging Technology Office at Zebra Technologies Corporation in Lincolnshire, Illinois. With nearly $4 billion in annual revenue, Zebra is a global market leader in a number of advanced technologies, including the Internet of Things and the related area of wearable technology.    While many Americans may not recognize Zebra by name, they come into contact with our solutions every day. For example, the barcode labels that are prominently featured on airline bag tags, express delivery packages, and pharmaceutical prescription bottles are often generated by a Zebra barcode label printer and tracked and managed by Zebra scanners, mobile computers, and wireless infrastructure.    Our pioneering technology vision and trusted enterprise solutions, particularly our wearables that are the focus of today's hearing, are dedicated to helping business, Government, and nonprofits make smarter decisions and take smarter actions by providing them with realtime visibility and mission-critical information in an ever-more-efficient manner.    Zebra commends the subcommittee for hosting this series of hearings on technological disrupters. Mr. Chairman, I will stress five key points.    First, let me begin with Zebra's role in the wearable market. Zebra's leadership in this market derives from our recreation of the overall wearables product category nearly 25 years ago. With the launch of our wrist-mounted terminal and ring scanner in 1992, we invented the first handheld laser barcode scanner, the first barcode printer, and the first WiFi-enabled mobile computer. We remain at the very forefront of breakthrough innovation as we continue to create wearables that go from the wrist and hand, as you see before me, to lanyards and heads-up computing solutions.    Second, we commend the subcommittee for its recognition of the wearable category as a disrupter. Wearables earn this status because they empower workers with total hands-free mobility in a manner that also provides instant access to business-critical information.    Instead of needing multiple devices that are all directed by hand, wearables enable new levels of productivity by providing employees with tools that marry natural language interaction with immediately available information, be it visual, verbal, or augmenting the user's physical reality.    Imagine, Mr. Chairman, a simple verbal command that provides a worker with full access to data and subject matter expertise in realtime. Imagine, further, the same worker using another verbal command to respond back and transmit data or pictures to a main office, aremotely located colleague, or to another machine. Now imagine having that ability while suspended high above the ground repairing the electrical grid or working inside an aircraft, no hands required. Wearable technology makes it happen.    Third, I would like to offer a quick look into the future. Awareness and acceptance of smartphone technology has grown at a tremendous pace and has built the foundation for wearable device adoption. Current technologies will continue to evolve and revolutionize the way people instinctively work with computers and intuitively interact with their virtual or augmented reality environments. It is not an overstatement to say that the possibilities of these devices are limitless.    Over the next few years, they will get smaller with technological improvements in computing, analytics, power, and display optics. As part of this trend, we will continue to advance our portfolio of wearables. We are presently focused on developing an augmented reality wearable system for true hands-free application, providing a future solutions approach for uninterrupted workflow and opening up the possibilities of what realtime, eye-level information can do.    Fourth, the economic benefits of wearables come from its significant impact on productivity across virtually every industry and economic sector. This is because visual computing or the ability to work hands-free while receiving eye-level information will drive a major paradigm shift in how we, as humans, directly interface with computers. Visual or hands-free computing will enable this kind of frictionless, uninterrupted workflow. Even a small increase in the efficiency of manufacturing or warehouse workers through wearables could bring a profound economic benefit to our economy.    Fifth and finally, we urge Congress and the administration to take a light touch where wearable technology is concerned, for the same reasons that many in industry as well as in Congress and the administration have advocated for a light regulatory approach to the Internet of Things.    The primary challenge is to allow for the rapid development, deployment, and subsequent advancement of wearables in a manner that simultaneously addresses concerns over data, security, and encryption. The goal is to encourage technologies which provide enhanced, secure, and realtime visibility and access to information in a way that empowers workers to undertake more effective and timely decisions and actions.    To this end, Mr. Chairman, Zebra stands ready work with the subcommittee inadvancing policies which keep the United States at the leading edge of this exciting technology. And I again thank you for the opportunity to provide our views on wearables, and I look forward to your questions.</t>
   </si>
   <si>
@@ -109,6 +136,9 @@
     <t xml:space="preserve">    Mr. Burgess. I thank everyone for their forbearance. The subcommittee will resume.    We will resume with the testimony of Ms. Meg Burich from Adidas Digital Sports.</t>
   </si>
   <si>
+    <t>Burich</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Burich. Good morning, Chairman and members of the subcommittee. Thank you for having me.</t>
   </si>
   <si>
@@ -145,12 +175,18 @@
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman. Mr. Peppet, Professor Peppet, you are recognized for 5 minutes for your opening statement, please.</t>
   </si>
   <si>
+    <t>Peppet</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Peppet. Chairman Burgess, Ranking Member Schakowsky, members of the subcommittee, I appreciate the opportunity to talk to you about wearables. I am a Professor of Law at the University of Colorado Law School in Boulder, where I work on markets, technology, and privacy. I should say I am also a member of the board of directors of Anixter International, an Illinois-headquartered company, so my remarks today are in my own capacity, and in no way represent Anixter or anyone else    I also want to say I am involved with four entrepreneurship and innovation centers: one in Colorado, one at Kellogg in Illinois, and one at the University of Michigan, and one actually in Israel at a university called IDC. And in that, in those roles, I have worked with student teams creating startups, many of whom are interested in or working in the wearable space. So I sort of got various perspectives on this set of issues.    These are exciting technologies, and I agree with my fellow witnesses who have said how much innovation is happening in this space, and I agree with all of that and just want to focus on three things in terms of privacy and security that I think deserve attention.    The first is one that you have already mentioned, which is data security, and I think there are two issues in data security. The first is, is the device itself secure? And that is a technical matter. Mostly, we know from research, that many of these devices have not been secured in the first wave of consumer devices, for example, and the reason is obvious: They are small, they are generally designed to be relatively inexpensive. It is hard to pack data security measures into a thing with a small processor, very limited connectivity, they are hard to update because they don't talk to the Internet that frequently.    And so it has been a challenge, and the FTC has worked with companies, continues to work to try to push companies in that space, or in the security issue, and I think we will see more innovation there to try to resolve some of those questions.    The second data security issue is actually not about the device, it is about the data. What happens to these data once they are off the device, they are stored in a company's cloud server somewhere, and someone hacks into that server. At the moment, if your credit card information is stolen from Target, for example, as you have all heard about that example, Target has to say, Hey, we were hacked, and they have to notify the public. That is our market-based response to data security in this country is to say, Listen, give consumers information, they will then choose with their dollars or their feet whether they want to go back to that store.    In all but one State, and Mr. Chairman, it is the great State of Texas, only Texas' data breach notification statute would actually apply to biometric data coming off of most of the wearables that we are talking about in the consumer space. The rest of the States really have not yet seen the risk that these incredibly sensitive data, as you said, pose if they were to be hacked, which I think is an odd and sort of unfortunate anomaly.    To the extent that Congress ventures into the data breach notification area, that is something that it should consider. So that is security.    The second thing I will talk about is use, and I will just give a very simple example. There are lots of different devices at the moment being used in hospitals that keep track of whether a hospital worker washes his or her hands when they use the restroom. What they do is they have a lanyard on, you know, or some kind of ID badge, and there is a device at the sink and it literally just says how long did they spend standing in front of the sink? And then if they approach a hospital bed and they haven't washed their hands properly, their lanyard starts to buzz and say, hey, wait a minute, and it records that they have done that, and that is not a good thing.    That is a great idea, right? I think that is a terrific idea. I hope that every hospital I ever use has that, and employees, consumers, whoever we are talking about, need to know what those kinds of data are being used for. So for example, there might be no issue at all for a hospital or an employer using the data coming off a wearable for the obvious use that it was designed for, but I would guess that if one of the hospital employees discovered that their hand-washing habits had leaked out into data brokerages and was being used in credit decisions or insurance decisions or any other kind of decisions in the economy, they would be both surprised and unhappy. So the use issue is a very complicated one.    And the last one I will say something about is consent. Consent is hard, particularly in the consumer space, for these little devices. A study that I did, I brought 20 of these very popular devices, I opened all the boxes, and I looked inside. There is almost never any privacy information. I didn't test Adidas', but there is almost never privacy information in the box. Sometimes you get the privacy information when you download the app that pairs with the device. Often, you are sent to the Web site or you have to go to Web site of the firm, and often, when you get there and you read their privacy policy, it doesn't apply to the data coming off the device. It applies to the use of the Web site.    So at the moment, we are in a bit of a backward situation on how to give users and consumers, in particular, good information about these devices. Is the device information protected? Who owns the data? Can users go in and delete their data? Many have discovered that they can't, so their fitness data is being stored in the cloud somewhere and they say, I don't want to use this device anymore. They didn't just lose it. They affirmatively decided they don't like it anymore, and they say, I want to get my data back. I don't want you to have it anymore.    Many companies actually will not permit that or permit editing of this data. And most important, who is the data being shared with? Can it be sold in a bankruptcy, in an acquisition, or just in general?    So again, the FTC has been working with industry to try to come up with some guidance on those issues, but those consent questions are very difficult at the moment.    I will stop there. Thank you for allowing me to testify.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Burgess. The Chair thanks the gentleman. Mr. Webster is recognized for 5 minutes for your testimony, please.</t>
   </si>
   <si>
+    <t>Webster</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Webster. Thank you, Mr. Chairman and members of subcommittee. The Internet has revolutionized the world around us, transforming the way we use and share data to communicate, to collaborate, and consume entertainment and information. Yet, the next wave of technology isn't about moving data from one place to another, it is about connecting physical objects to the Internet on an unprecedented scale.    Now, increasingly, the things connected are the shirts on our backs, the glasses on our foreheads, the watches on our wrists, and the jewelry around our necks, and collectively, these emerging devices are referred to as wearables.    To be sure, some wearables are mere novelties. However, many others, like the Fitbit or Apple watch, are improving our health and wellness by tracking our daily activities, and the most advanced wearables have the power to save lives and improve patient outcomes. For example, there is an FDA-approved heart rate monitor that provides precise information from cardiac patients to their physicians between visits to the doctor's office.    Another device looks like a typical smartwatch, but in reality, it helps epileptic patients manage their stress and alert family members and physicians when a convulsive seizure happens.    And a third, a prototype in development, is a glucose-monitoring contact lens that allows diabetics to monitor their blood sugar continuously, and the possibilities are endless here. I mean, virtual reality goggles that provide for immersive education, connected football helmets to alert the team physical to a possible concussion, GPS-enabled slippers to make sure an elderly relative is getting out of bed and doesn't wander off, and accessories that make mobile payments faster and easier.    Now, the one feature that unites these devices is their wireless connectivity to the Internet. Each contains a tiny radio transmitter that sends data to a receiving device, such as a WiFi router or a smartphone, and then the data is transmitted over an IP network to a server or data storage facility.    Now, once online, software allows you to visualize and analyze the data to help improve decisionmaking, whether it is information about your daily run, your average number of steps per day that gauge your fitness progress, or simply storing videos so you can decide whether to post it at a later date.    Now, at Cisco, we have been monitoring the growth of wearables for 3 years, and it is fair to say that these devices are poised to take off. Here is the forecast from our most recent Cisco mobile visual and networking index report. By 2020, we forecast approximately 600 million wearable devices globally, up from 97 million in 2015.    Now, fewer than 15 percent of these devices are expected to be directly capable of transmitting on a cellular network. Most, instead, will use WiFi or Bluetooth to connect to the Internet. Now, the data generated by wearables represents a tiny trickle in the larger stream of mobile data, mostly because only a few of these devices are being used to transmit video.    Traffic from wearables is forecast to account for only 1 percent of total mobile data traffic by 2020, even as the amount of data generated by each device is expected to grow.    Now, North America has a 40 percent share of global connections today, and it is because we are early adopters, but that falls to 30 percent by 2020 as Europe and Asia catch up with us. By 2020, there are forecasts to be over 180 million wearable devices in use in North America, compared to about 40 million today, representing a 4 \\1/2\\-fold increase in just 5 years.    Now, given this growth, it is important for policymakers to understand the issues affecting wearables. We need to ensure that radio spectrum is available with the right set of rules to make sure these devices can connect to the network, to encourage policy that support investment in the service provider networks that are needed to transport data to the Internet.    We need policies that encourage startups and small companies by ensuring access to venture capital to tax policies that support research and development, as well as encouraging more young people to enter careers in science, technology, engineering, and math, also known as STEM. And we need to ensure that device manufacturers and applications developers understand privacy and security threats and take the steps to protect their devices and the personal information of consumers.    Here is the bottom line: Wearables represent a measurable component of the mobile landscape, and they are projected to continue to grow. They hold incredible promise to improve our lives. Public policies that encourage the development of this category should be supported so that the United States can continue to be a leader in this next chapter of the Internet.    Thank you for your attention, and I look forward to answering your questions.</t>
   </si>
   <si>
@@ -160,6 +196,12 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Brooks. Thank you, Mr. Chairman. Thanks for holding this hearing. I happen to be one of those brand new users, just acquired a couple of weeks ago. I kind of wish I had been a part of this hearing before I bought this. However, I am excited to be part of the wearable technology consumer base, and, in fact, bought several of these for my parents and in-laws for the holidays.    And so we often think about fitness trackers when we hear wearable technology, and so we are certainly learning a lot, and when, in preparing for this hearing, learning about innovations in manufacturing. In Indiana where I am from, is a heavy manufacturing State, one of the top manufacturing States in the country.    And so, Mr. Bianculli--I am not sure I caught----</t>
   </si>
   <si>
@@ -247,6 +289,12 @@
     <t>412290</t>
   </si>
   <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lance. Thank you. Mr. Webster, we have heard a lot about the benefits of this technology. Why is it more advanced, for example, than the smartphone?</t>
   </si>
   <si>
@@ -262,6 +310,12 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. With that, I will be brief and respect my chairman.    Thank you all for being here. Mr. Webster, if I could ask what types of economic and workplace problems do wearables solve for business?</t>
   </si>
   <si>
@@ -299,6 +353,12 @@
   </si>
   <si>
     <t>412250</t>
+  </si>
+  <si>
+    <t>Bilirakis</t>
+  </si>
+  <si>
+    <t>Gus</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Bilirakis. OK.</t>
@@ -767,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -775,7 +835,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,2813 +857,3309 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
       <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G49" t="s">
+        <v>56</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s">
+        <v>23</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G56" t="s">
+        <v>23</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>22</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>23</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>22</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G60" t="s">
+        <v>23</v>
+      </c>
       <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G63" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G64" t="s">
+        <v>91</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>81</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G66" t="s">
+        <v>98</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G68" t="s">
+        <v>98</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>22</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G69" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G70" t="s">
+        <v>98</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G71" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G72" t="s">
+        <v>98</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G73" t="s">
+        <v>30</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G74" t="s">
+        <v>98</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>97</v>
+      </c>
+      <c r="G76" t="s">
+        <v>98</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G78" t="s">
+        <v>113</v>
+      </c>
       <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
+        <v>113</v>
+      </c>
       <c r="H80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G82" t="s">
+        <v>113</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G84" t="s">
+        <v>113</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G85" t="s">
+        <v>40</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>113</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I86" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G88" t="s">
+        <v>113</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I88" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G89" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G90" t="s">
+        <v>113</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G91" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G92" t="s">
+        <v>113</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>94</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G94" t="s">
+        <v>113</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>53</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>94</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>112</v>
+      </c>
+      <c r="G96" t="s">
+        <v>113</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>114</v>
+      </c>
+      <c r="I96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G98" t="s">
+        <v>53</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G100" t="s">
+        <v>53</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G102" t="s">
+        <v>53</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G104" t="s">
+        <v>56</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G108" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G110" t="s">
+        <v>40</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>22</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G112" t="s">
+        <v>40</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>22</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G114" t="s">
+        <v>40</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>22</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G116" t="s">
+        <v>40</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>134</v>
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20248.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="161">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400052</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Burgess</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Pallone</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400360</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Schakowsky</t>
   </si>
   <si>
@@ -196,6 +208,9 @@
     <t>412539</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Brooks</t>
   </si>
   <si>
@@ -287,6 +302,9 @@
   </si>
   <si>
     <t>412290</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Lance</t>
@@ -827,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,7 +853,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,3306 +878,3568 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
-      </c>
-      <c r="G39" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G41" t="s">
-        <v>40</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
-      </c>
-      <c r="G47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>60</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" t="s">
-        <v>56</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>60</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G52" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H52" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" t="s">
-        <v>40</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>44</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
-      </c>
-      <c r="G55" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" t="s">
-        <v>53</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H58" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" t="s">
-        <v>53</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G62" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H62" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G63" t="s">
-        <v>56</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G64" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="H64" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G66" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H66" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" t="s">
-        <v>56</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>60</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G68" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H68" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I68" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
-      </c>
-      <c r="G69" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>39</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H70" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J70" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
-      </c>
-      <c r="G71" t="s">
-        <v>35</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>39</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G72" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" t="s">
-        <v>30</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G74" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I74" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>105</v>
+      </c>
+      <c r="J76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G78" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H78" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I78" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G80" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H80" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G82" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H82" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I82" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J82" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I83" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G84" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H84" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>40</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>44</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I86" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G88" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H88" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I88" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" t="s">
-        <v>56</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>60</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G90" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I90" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" t="s">
-        <v>35</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>39</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G92" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I92" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" t="s">
-        <v>35</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>39</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G94" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H94" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I94" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J94" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
-        <v>53</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G96" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="H96" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
-      </c>
-      <c r="G98" t="s">
-        <v>53</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>57</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
-      </c>
-      <c r="G100" t="s">
-        <v>53</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
-      </c>
-      <c r="G102" t="s">
-        <v>53</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>57</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" t="s">
-        <v>56</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>60</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
-      </c>
-      <c r="G106" t="s">
-        <v>35</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>39</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
-      </c>
-      <c r="G108" t="s">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>44</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
-      </c>
-      <c r="G110" t="s">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>44</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" t="s">
-        <v>40</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>44</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>29</v>
-      </c>
-      <c r="G114" t="s">
-        <v>40</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>44</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>40</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>44</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>154</v>
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
